--- a/config_generation/card_list.xlsx
+++ b/config_generation/card_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\670264231\CLionProjects\dominion-setup-counter\config_generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB1D6C8-958F-4E5F-A8A3-2694C076D70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538E3DCB-C0C3-46CC-953E-10A757209FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kingdom" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Kingdom!$A$1:$I$499</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Landscapes!$A$1:$E$218</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="793">
   <si>
     <t>Expansion</t>
   </si>
@@ -1692,12 +1693,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>Alms</t>
   </si>
   <si>
@@ -2425,6 +2420,9 @@
   </si>
   <si>
     <t>Riverboat</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -2495,7 +2493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2508,6 +2506,13 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -2897,7 +2902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I499"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B469" sqref="B469"/>
     </sheetView>
   </sheetViews>
@@ -2913,7 +2918,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>548</v>
@@ -2928,16 +2933,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6545,7 +6550,7 @@
         <v>191</v>
       </c>
       <c r="C173" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
@@ -6565,7 +6570,7 @@
         <v>193</v>
       </c>
       <c r="C174" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
@@ -6585,7 +6590,7 @@
         <v>194</v>
       </c>
       <c r="C175" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
@@ -6605,7 +6610,7 @@
         <v>195</v>
       </c>
       <c r="C176" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D176" t="s">
         <v>11</v>
@@ -6625,7 +6630,7 @@
         <v>196</v>
       </c>
       <c r="C177" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D177" t="s">
         <v>11</v>
@@ -6645,7 +6650,7 @@
         <v>197</v>
       </c>
       <c r="C178" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D178" t="s">
         <v>11</v>
@@ -6665,7 +6670,7 @@
         <v>198</v>
       </c>
       <c r="C179" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D179" t="s">
         <v>11</v>
@@ -6688,7 +6693,7 @@
         <v>199</v>
       </c>
       <c r="C180" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D180" t="s">
         <v>11</v>
@@ -12937,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C468" t="s">
         <v>510</v>
@@ -13752,8 +13757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D52C678-4E61-407F-A442-FC0A28FC9EC1}">
   <dimension ref="A1:E218"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M134" sqref="M134"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V143" sqref="V143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13765,17 +13770,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="b">
-        <v>1</v>
+      <c r="A1" s="7" t="s">
+        <v>785</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>548</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>550</v>
+        <v>792</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -13786,13 +13791,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C2" t="s">
         <v>276</v>
       </c>
       <c r="D2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -13803,13 +13808,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C3" t="s">
         <v>276</v>
       </c>
       <c r="D3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -13820,13 +13825,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C4" t="s">
         <v>276</v>
       </c>
       <c r="D4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -13837,13 +13842,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C5" t="s">
         <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -13854,13 +13859,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C6" t="s">
         <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -13871,13 +13876,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C7" t="s">
         <v>276</v>
       </c>
       <c r="D7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -13888,13 +13893,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C8" t="s">
         <v>276</v>
       </c>
       <c r="D8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -13905,13 +13910,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C9" t="s">
         <v>276</v>
       </c>
       <c r="D9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -13922,13 +13927,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C10" t="s">
         <v>276</v>
       </c>
       <c r="D10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -13939,13 +13944,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C11" t="s">
         <v>276</v>
       </c>
       <c r="D11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -13956,13 +13961,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C12" t="s">
         <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -13973,13 +13978,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C13" t="s">
         <v>276</v>
       </c>
       <c r="D13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -13990,13 +13995,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C14" t="s">
         <v>276</v>
       </c>
       <c r="D14" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -14007,13 +14012,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C15" t="s">
         <v>276</v>
       </c>
       <c r="D15" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -14024,13 +14029,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C16" t="s">
         <v>276</v>
       </c>
       <c r="D16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -14041,13 +14046,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C17" t="s">
         <v>276</v>
       </c>
       <c r="D17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -14058,13 +14063,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C18" t="s">
         <v>276</v>
       </c>
       <c r="D18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -14075,13 +14080,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C19" t="s">
         <v>276</v>
       </c>
       <c r="D19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -14092,13 +14097,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C20" t="s">
         <v>276</v>
       </c>
       <c r="D20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E20">
         <v>7</v>
@@ -14109,13 +14114,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C21" t="s">
         <v>276</v>
       </c>
       <c r="D21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E21">
         <v>8</v>
@@ -14126,13 +14131,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C22" t="s">
         <v>309</v>
       </c>
       <c r="D22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E22" t="s">
         <v>310</v>
@@ -14143,13 +14148,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C23" t="s">
         <v>309</v>
       </c>
       <c r="D23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E23" t="s">
         <v>310</v>
@@ -14160,13 +14165,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C24" t="s">
         <v>309</v>
       </c>
       <c r="D24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E24" t="s">
         <v>310</v>
@@ -14177,13 +14182,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C25" t="s">
         <v>309</v>
       </c>
       <c r="D25" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -14194,13 +14199,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C26" t="s">
         <v>309</v>
       </c>
       <c r="D26" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -14211,13 +14216,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C27" t="s">
         <v>309</v>
       </c>
       <c r="D27" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -14228,13 +14233,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C28" t="s">
         <v>309</v>
       </c>
       <c r="D28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -14245,13 +14250,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C29" t="s">
         <v>309</v>
       </c>
       <c r="D29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -14262,13 +14267,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C30" t="s">
         <v>309</v>
       </c>
       <c r="D30" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -14279,13 +14284,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C31" t="s">
         <v>309</v>
       </c>
       <c r="D31" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E31" t="s">
         <v>310</v>
@@ -14296,13 +14301,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C32" t="s">
         <v>309</v>
       </c>
       <c r="D32" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -14313,13 +14318,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C33" t="s">
         <v>309</v>
       </c>
       <c r="D33" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -14330,13 +14335,13 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C34" t="s">
         <v>309</v>
       </c>
       <c r="D34" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E34">
         <v>14</v>
@@ -14347,13 +14352,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C35" t="s">
         <v>309</v>
       </c>
       <c r="D35" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -14361,13 +14366,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C36" t="s">
         <v>309</v>
       </c>
       <c r="D36" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -14375,13 +14380,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C37" t="s">
         <v>309</v>
       </c>
       <c r="D37" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -14389,13 +14394,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C38" t="s">
         <v>309</v>
       </c>
       <c r="D38" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -14403,13 +14408,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C39" t="s">
         <v>309</v>
       </c>
       <c r="D39" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -14417,13 +14422,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C40" t="s">
         <v>309</v>
       </c>
       <c r="D40" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -14431,13 +14436,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C41" t="s">
         <v>309</v>
       </c>
       <c r="D41" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -14445,13 +14450,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C42" t="s">
         <v>309</v>
       </c>
       <c r="D42" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -14459,13 +14464,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C43" t="s">
         <v>309</v>
       </c>
       <c r="D43" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -14473,13 +14478,13 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C44" t="s">
         <v>309</v>
       </c>
       <c r="D44" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -14487,13 +14492,13 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C45" t="s">
         <v>309</v>
       </c>
       <c r="D45" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -14501,13 +14506,13 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C46" t="s">
         <v>309</v>
       </c>
       <c r="D46" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -14515,13 +14520,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C47" t="s">
         <v>309</v>
       </c>
       <c r="D47" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -14529,13 +14534,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C48" t="s">
         <v>309</v>
       </c>
       <c r="D48" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -14543,13 +14548,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C49" t="s">
         <v>309</v>
       </c>
       <c r="D49" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -14557,13 +14562,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C50" t="s">
         <v>309</v>
       </c>
       <c r="D50" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -14571,13 +14576,13 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C51" t="s">
         <v>309</v>
       </c>
       <c r="D51" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -14585,13 +14590,13 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C52" t="s">
         <v>309</v>
       </c>
       <c r="D52" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -14599,13 +14604,13 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C53" t="s">
         <v>309</v>
       </c>
       <c r="D53" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -14613,13 +14618,13 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C54" t="s">
         <v>309</v>
       </c>
       <c r="D54" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -14627,13 +14632,13 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C55" t="s">
         <v>309</v>
       </c>
       <c r="D55" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -14641,13 +14646,13 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C56" t="s">
         <v>374</v>
       </c>
       <c r="D56" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -14658,13 +14663,13 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C57" t="s">
         <v>374</v>
       </c>
       <c r="D57" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E57">
         <v>3</v>
@@ -14675,13 +14680,13 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C58" t="s">
         <v>374</v>
       </c>
       <c r="D58" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -14692,13 +14697,13 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C59" t="s">
         <v>374</v>
       </c>
       <c r="D59" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -14709,13 +14714,13 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C60" t="s">
         <v>374</v>
       </c>
       <c r="D60" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -14726,13 +14731,13 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C61" t="s">
         <v>374</v>
       </c>
       <c r="D61" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E61">
         <v>4</v>
@@ -14743,13 +14748,13 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C62" t="s">
         <v>374</v>
       </c>
       <c r="D62" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E62">
         <v>4</v>
@@ -14760,13 +14765,13 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C63" t="s">
         <v>374</v>
       </c>
       <c r="D63" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E63">
         <v>4</v>
@@ -14777,13 +14782,13 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C64" t="s">
         <v>374</v>
       </c>
       <c r="D64" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E64">
         <v>4</v>
@@ -14794,13 +14799,13 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C65" t="s">
         <v>374</v>
       </c>
       <c r="D65" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E65">
         <v>5</v>
@@ -14811,13 +14816,13 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C66" t="s">
         <v>374</v>
       </c>
       <c r="D66" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E66">
         <v>5</v>
@@ -14828,13 +14833,13 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C67" t="s">
         <v>374</v>
       </c>
       <c r="D67" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -14845,13 +14850,13 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C68" t="s">
         <v>374</v>
       </c>
       <c r="D68" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E68">
         <v>5</v>
@@ -14862,13 +14867,13 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C69" t="s">
         <v>374</v>
       </c>
       <c r="D69" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E69">
         <v>5</v>
@@ -14879,13 +14884,13 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C70" t="s">
         <v>374</v>
       </c>
       <c r="D70" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E70">
         <v>5</v>
@@ -14896,13 +14901,13 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C71" t="s">
         <v>374</v>
       </c>
       <c r="D71" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E71">
         <v>6</v>
@@ -14913,13 +14918,13 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C72" t="s">
         <v>374</v>
       </c>
       <c r="D72" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E72">
         <v>6</v>
@@ -14930,13 +14935,13 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C73" t="s">
         <v>374</v>
       </c>
       <c r="D73" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E73">
         <v>6</v>
@@ -14947,13 +14952,13 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C74" t="s">
         <v>374</v>
       </c>
       <c r="D74" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E74">
         <v>7</v>
@@ -14964,13 +14969,13 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C75" t="s">
         <v>374</v>
       </c>
       <c r="D75" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E75">
         <v>8</v>
@@ -14981,13 +14986,13 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C76" t="s">
         <v>166</v>
       </c>
       <c r="D76" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -14998,13 +15003,13 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C77" t="s">
         <v>166</v>
       </c>
       <c r="D77" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -15015,13 +15020,13 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C78" t="s">
         <v>166</v>
       </c>
       <c r="D78" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -15032,13 +15037,13 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C79" t="s">
         <v>166</v>
       </c>
       <c r="D79" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -15049,13 +15054,13 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C80" t="s">
         <v>166</v>
       </c>
       <c r="D80" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -15066,13 +15071,13 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C81" t="s">
         <v>166</v>
       </c>
       <c r="D81" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -15083,13 +15088,13 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C82" t="s">
         <v>166</v>
       </c>
       <c r="D82" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E82">
         <v>3</v>
@@ -15100,13 +15105,13 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C83" t="s">
         <v>166</v>
       </c>
       <c r="D83" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -15117,13 +15122,13 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C84" t="s">
         <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -15134,13 +15139,13 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C85" t="s">
         <v>166</v>
       </c>
       <c r="D85" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -15151,13 +15156,13 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C86" t="s">
         <v>166</v>
       </c>
       <c r="D86" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E86">
         <v>4</v>
@@ -15168,13 +15173,13 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C87" t="s">
         <v>166</v>
       </c>
       <c r="D87" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E87">
         <v>4</v>
@@ -15185,13 +15190,13 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C88" t="s">
         <v>166</v>
       </c>
       <c r="D88" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E88">
         <v>4</v>
@@ -15202,13 +15207,13 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C89" t="s">
         <v>166</v>
       </c>
       <c r="D89" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E89">
         <v>5</v>
@@ -15219,13 +15224,13 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C90" t="s">
         <v>166</v>
       </c>
       <c r="D90" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E90">
         <v>5</v>
@@ -15236,13 +15241,13 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C91" t="s">
         <v>166</v>
       </c>
       <c r="D91" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -15253,13 +15258,13 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C92" t="s">
         <v>166</v>
       </c>
       <c r="D92" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E92">
         <v>7</v>
@@ -15270,13 +15275,13 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C93" t="s">
         <v>166</v>
       </c>
       <c r="D93" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E93">
         <v>8</v>
@@ -15287,13 +15292,13 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C94" t="s">
         <v>166</v>
       </c>
       <c r="D94" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E94">
         <v>10</v>
@@ -15304,13 +15309,13 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C95" t="s">
         <v>166</v>
       </c>
       <c r="D95" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E95">
         <v>10</v>
@@ -15321,13 +15326,13 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C96" t="s">
         <v>166</v>
       </c>
       <c r="D96" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -15335,13 +15340,13 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C97" t="s">
         <v>166</v>
       </c>
       <c r="D97" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -15349,13 +15354,13 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C98" t="s">
         <v>166</v>
       </c>
       <c r="D98" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -15363,13 +15368,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C99" t="s">
         <v>166</v>
       </c>
       <c r="D99" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -15377,13 +15382,13 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C100" t="s">
         <v>166</v>
       </c>
       <c r="D100" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -15391,13 +15396,13 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C101" t="s">
         <v>166</v>
       </c>
       <c r="D101" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -15405,13 +15410,13 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C102" t="s">
         <v>166</v>
       </c>
       <c r="D102" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -15419,13 +15424,13 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C103" t="s">
         <v>166</v>
       </c>
       <c r="D103" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -15433,13 +15438,13 @@
         <v>1</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C104" t="s">
         <v>166</v>
       </c>
       <c r="D104" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -15447,13 +15452,13 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C105" t="s">
         <v>166</v>
       </c>
       <c r="D105" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -15461,13 +15466,13 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C106" t="s">
         <v>166</v>
       </c>
       <c r="D106" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -15475,13 +15480,13 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C107" t="s">
         <v>166</v>
       </c>
       <c r="D107" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -15489,13 +15494,13 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C108" t="s">
         <v>166</v>
       </c>
       <c r="D108" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -15503,13 +15508,13 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C109" t="s">
         <v>166</v>
       </c>
       <c r="D109" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -15517,13 +15522,13 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C110" t="s">
         <v>166</v>
       </c>
       <c r="D110" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -15531,13 +15536,13 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C111" t="s">
         <v>166</v>
       </c>
       <c r="D111" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -15545,13 +15550,13 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C112" t="s">
         <v>166</v>
       </c>
       <c r="D112" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -15559,13 +15564,13 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C113" t="s">
         <v>166</v>
       </c>
       <c r="D113" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -15573,13 +15578,13 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C114" t="s">
         <v>166</v>
       </c>
       <c r="D114" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -15587,13 +15592,13 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C115" t="s">
         <v>166</v>
       </c>
       <c r="D115" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -15601,13 +15606,13 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C116" t="s">
         <v>468</v>
       </c>
       <c r="D116" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -15618,13 +15623,13 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C117" t="s">
         <v>468</v>
       </c>
       <c r="D117" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -15635,13 +15640,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C118" t="s">
         <v>468</v>
       </c>
       <c r="D118" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -15649,16 +15654,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C119" t="s">
         <v>468</v>
       </c>
       <c r="D119" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -15669,13 +15674,13 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C120" t="s">
         <v>468</v>
       </c>
       <c r="D120" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -15683,16 +15688,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C121" t="s">
         <v>468</v>
       </c>
       <c r="D121" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E121">
         <v>3</v>
@@ -15703,13 +15708,13 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C122" t="s">
         <v>468</v>
       </c>
       <c r="D122" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E122">
         <v>3</v>
@@ -15720,13 +15725,13 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C123" t="s">
         <v>468</v>
       </c>
       <c r="D123" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E123">
         <v>3</v>
@@ -15737,13 +15742,13 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C124" t="s">
         <v>468</v>
       </c>
       <c r="D124" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E124">
         <v>3</v>
@@ -15754,13 +15759,13 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C125" t="s">
         <v>468</v>
       </c>
       <c r="D125" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E125">
         <v>3</v>
@@ -15771,13 +15776,13 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C126" t="s">
         <v>468</v>
       </c>
       <c r="D126" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E126">
         <v>4</v>
@@ -15788,13 +15793,13 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C127" t="s">
         <v>468</v>
       </c>
       <c r="D127" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -15802,16 +15807,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C128" t="s">
         <v>468</v>
       </c>
       <c r="D128" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E128">
         <v>6</v>
@@ -15819,16 +15824,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C129" t="s">
         <v>468</v>
       </c>
       <c r="D129" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E129">
         <v>10</v>
@@ -15839,13 +15844,13 @@
         <v>0</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C130" t="s">
         <v>468</v>
       </c>
       <c r="D130" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E130">
         <v>10</v>
@@ -15856,27 +15861,27 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C131" t="s">
         <v>468</v>
       </c>
       <c r="D131" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>686</v>
+        <v>0</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>684</v>
       </c>
       <c r="C132" t="s">
         <v>468</v>
       </c>
       <c r="D132" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -15884,13 +15889,13 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C133" t="s">
         <v>468</v>
       </c>
       <c r="D133" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -15898,13 +15903,13 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C134" t="s">
         <v>468</v>
       </c>
       <c r="D134" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -15912,13 +15917,13 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C135" t="s">
         <v>468</v>
       </c>
       <c r="D135" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -15926,13 +15931,13 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C136" t="s">
         <v>468</v>
       </c>
       <c r="D136" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -15940,13 +15945,13 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C137" t="s">
         <v>468</v>
       </c>
       <c r="D137" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -15954,13 +15959,13 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C138" t="s">
         <v>468</v>
       </c>
       <c r="D138" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -15968,13 +15973,13 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C139" t="s">
         <v>468</v>
       </c>
       <c r="D139" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -15982,13 +15987,13 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C140" t="s">
         <v>468</v>
       </c>
       <c r="D140" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -15996,13 +16001,13 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C141" t="s">
         <v>468</v>
       </c>
       <c r="D141" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -16010,13 +16015,13 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C142" t="s">
         <v>468</v>
       </c>
       <c r="D142" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -16024,13 +16029,13 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C143" t="s">
         <v>468</v>
       </c>
       <c r="D143" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -16038,13 +16043,13 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C144" t="s">
         <v>468</v>
       </c>
       <c r="D144" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -16052,13 +16057,13 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C145" t="s">
         <v>468</v>
       </c>
       <c r="D145" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -16066,13 +16071,13 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C146" t="s">
         <v>510</v>
       </c>
       <c r="D146" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E146">
         <v>2</v>
@@ -16083,13 +16088,13 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C147" t="s">
         <v>510</v>
       </c>
       <c r="D147" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -16100,13 +16105,13 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C148" t="s">
         <v>510</v>
       </c>
       <c r="D148" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E148" t="s">
         <v>310</v>
@@ -16117,13 +16122,13 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C149" t="s">
         <v>510</v>
       </c>
       <c r="D149" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E149">
         <v>2</v>
@@ -16134,13 +16139,13 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C150" t="s">
         <v>510</v>
       </c>
       <c r="D150" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -16151,13 +16156,13 @@
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C151" t="s">
         <v>510</v>
       </c>
       <c r="D151" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E151">
         <v>7</v>
@@ -16168,13 +16173,13 @@
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C152" t="s">
         <v>510</v>
       </c>
       <c r="D152" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -16185,13 +16190,13 @@
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C153" t="s">
         <v>510</v>
       </c>
       <c r="D153" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E153">
         <v>3</v>
@@ -16202,13 +16207,13 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C154" t="s">
         <v>510</v>
       </c>
       <c r="D154" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E154">
         <v>5</v>
@@ -16219,13 +16224,13 @@
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C155" t="s">
         <v>510</v>
       </c>
       <c r="D155" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E155">
         <v>4</v>
@@ -16236,13 +16241,13 @@
         <v>0</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>537</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E156" s="5">
         <v>5</v>
@@ -16250,16 +16255,16 @@
     </row>
     <row r="157" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C157" t="s">
         <v>510</v>
       </c>
       <c r="D157" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -16267,13 +16272,13 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C158" t="s">
         <v>510</v>
       </c>
       <c r="D158" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -16281,13 +16286,13 @@
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C159" t="s">
         <v>510</v>
       </c>
       <c r="D159" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -16295,13 +16300,13 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C160" t="s">
         <v>510</v>
       </c>
       <c r="D160" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -16309,13 +16314,13 @@
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C161" t="s">
         <v>510</v>
       </c>
       <c r="D161" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -16323,13 +16328,13 @@
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C162" t="s">
         <v>510</v>
       </c>
       <c r="D162" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -16337,13 +16342,13 @@
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C163" t="s">
         <v>510</v>
       </c>
       <c r="D163" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -16351,13 +16356,13 @@
         <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C164" t="s">
         <v>510</v>
       </c>
       <c r="D164" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -16365,13 +16370,13 @@
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C165" t="s">
         <v>510</v>
       </c>
       <c r="D165" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -16379,13 +16384,13 @@
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C166" t="s">
         <v>510</v>
       </c>
       <c r="D166" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -16393,13 +16398,13 @@
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C167" t="s">
         <v>510</v>
       </c>
       <c r="D167" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -16407,13 +16412,13 @@
         <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C168" t="s">
         <v>510</v>
       </c>
       <c r="D168" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -16421,13 +16426,13 @@
         <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C169" t="s">
         <v>510</v>
       </c>
       <c r="D169" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -16435,13 +16440,13 @@
         <v>0</v>
       </c>
       <c r="B170" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C170" t="s">
         <v>510</v>
       </c>
       <c r="D170" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -16449,13 +16454,13 @@
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C171" t="s">
         <v>510</v>
       </c>
       <c r="D171" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -16463,13 +16468,13 @@
         <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C172" t="s">
         <v>430</v>
       </c>
       <c r="D172" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -16477,13 +16482,13 @@
         <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C173" t="s">
         <v>430</v>
       </c>
       <c r="D173" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -16491,13 +16496,13 @@
         <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C174" t="s">
         <v>430</v>
       </c>
       <c r="D174" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -16505,13 +16510,13 @@
         <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C175" t="s">
         <v>430</v>
       </c>
       <c r="D175" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -16519,13 +16524,13 @@
         <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C176" t="s">
         <v>430</v>
       </c>
       <c r="D176" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -16533,13 +16538,13 @@
         <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C177" t="s">
         <v>430</v>
       </c>
       <c r="D177" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -16547,13 +16552,13 @@
         <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C178" t="s">
         <v>430</v>
       </c>
       <c r="D178" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -16561,13 +16566,13 @@
         <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C179" t="s">
         <v>430</v>
       </c>
       <c r="D179" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -16575,13 +16580,13 @@
         <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C180" t="s">
         <v>430</v>
       </c>
       <c r="D180" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -16589,13 +16594,13 @@
         <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C181" t="s">
         <v>430</v>
       </c>
       <c r="D181" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -16603,13 +16608,13 @@
         <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C182" t="s">
         <v>430</v>
       </c>
       <c r="D182" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -16617,13 +16622,13 @@
         <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C183" t="s">
         <v>430</v>
       </c>
       <c r="D183" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -16631,13 +16636,13 @@
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C184" t="s">
         <v>430</v>
       </c>
       <c r="D184" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -16645,13 +16650,13 @@
         <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C185" t="s">
         <v>430</v>
       </c>
       <c r="D185" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -16659,13 +16664,13 @@
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C186" t="s">
         <v>430</v>
       </c>
       <c r="D186" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -16673,13 +16678,13 @@
         <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C187" t="s">
         <v>430</v>
       </c>
       <c r="D187" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -16687,13 +16692,13 @@
         <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C188" t="s">
         <v>430</v>
       </c>
       <c r="D188" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -16701,13 +16706,13 @@
         <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C189" t="s">
         <v>430</v>
       </c>
       <c r="D189" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -16715,13 +16720,13 @@
         <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C190" t="s">
         <v>430</v>
       </c>
       <c r="D190" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -16729,13 +16734,13 @@
         <v>0</v>
       </c>
       <c r="B191" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C191" t="s">
         <v>430</v>
       </c>
       <c r="D191" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -16743,13 +16748,13 @@
         <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C192" t="s">
         <v>430</v>
       </c>
       <c r="D192" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -16757,13 +16762,13 @@
         <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C193" t="s">
         <v>430</v>
       </c>
       <c r="D193" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -16771,13 +16776,13 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C194" t="s">
         <v>430</v>
       </c>
       <c r="D194" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -16785,13 +16790,13 @@
         <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C195" t="s">
         <v>337</v>
       </c>
       <c r="D195" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -16799,13 +16804,13 @@
         <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C196" t="s">
         <v>337</v>
       </c>
       <c r="D196" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -16813,13 +16818,13 @@
         <v>0</v>
       </c>
       <c r="B197" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C197" t="s">
         <v>337</v>
       </c>
       <c r="D197" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -16827,13 +16832,13 @@
         <v>0</v>
       </c>
       <c r="B198" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C198" t="s">
         <v>337</v>
       </c>
       <c r="D198" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -16841,13 +16846,13 @@
         <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C199" t="s">
         <v>337</v>
       </c>
       <c r="D199" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -16855,13 +16860,13 @@
         <v>0</v>
       </c>
       <c r="B200" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C200" t="s">
         <v>337</v>
       </c>
       <c r="D200" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -16869,13 +16874,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C201" t="s">
         <v>337</v>
       </c>
       <c r="D201" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -16883,13 +16888,13 @@
         <v>0</v>
       </c>
       <c r="B202" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C202" t="s">
         <v>337</v>
       </c>
       <c r="D202" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -16897,13 +16902,13 @@
         <v>0</v>
       </c>
       <c r="B203" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C203" t="s">
         <v>337</v>
       </c>
       <c r="D203" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -16911,13 +16916,13 @@
         <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C204" t="s">
         <v>337</v>
       </c>
       <c r="D204" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -16925,13 +16930,13 @@
         <v>0</v>
       </c>
       <c r="B205" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C205" t="s">
         <v>337</v>
       </c>
       <c r="D205" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -16939,13 +16944,13 @@
         <v>0</v>
       </c>
       <c r="B206" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C206" t="s">
         <v>337</v>
       </c>
       <c r="D206" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -16953,13 +16958,13 @@
         <v>0</v>
       </c>
       <c r="B207" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C207" t="s">
         <v>337</v>
       </c>
       <c r="D207" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -16967,13 +16972,13 @@
         <v>0</v>
       </c>
       <c r="B208" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C208" t="s">
         <v>337</v>
       </c>
       <c r="D208" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -16981,13 +16986,13 @@
         <v>0</v>
       </c>
       <c r="B209" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C209" t="s">
         <v>337</v>
       </c>
       <c r="D209" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -16995,13 +17000,13 @@
         <v>0</v>
       </c>
       <c r="B210" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C210" t="s">
         <v>337</v>
       </c>
       <c r="D210" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -17009,13 +17014,13 @@
         <v>0</v>
       </c>
       <c r="B211" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C211" t="s">
         <v>337</v>
       </c>
       <c r="D211" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -17023,13 +17028,13 @@
         <v>0</v>
       </c>
       <c r="B212" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C212" t="s">
         <v>337</v>
       </c>
       <c r="D212" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -17037,13 +17042,13 @@
         <v>0</v>
       </c>
       <c r="B213" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C213" t="s">
         <v>337</v>
       </c>
       <c r="D213" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -17051,13 +17056,13 @@
         <v>0</v>
       </c>
       <c r="B214" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C214" t="s">
         <v>337</v>
       </c>
       <c r="D214" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -17065,13 +17070,13 @@
         <v>0</v>
       </c>
       <c r="B215" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C215" t="s">
         <v>337</v>
       </c>
       <c r="D215" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -17079,13 +17084,13 @@
         <v>0</v>
       </c>
       <c r="B216" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C216" t="s">
         <v>337</v>
       </c>
       <c r="D216" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -17093,13 +17098,13 @@
         <v>0</v>
       </c>
       <c r="B217" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C217" t="s">
         <v>337</v>
       </c>
       <c r="D217" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -17107,18 +17112,19 @@
         <v>0</v>
       </c>
       <c r="B218" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C218" t="s">
         <v>337</v>
       </c>
       <c r="D218" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E218" xr:uid="{0D52C678-4E61-407F-A442-FC0A28FC9EC1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000 Classified&amp;1#_x000D_</oddHeader>
   </headerFooter>
@@ -17159,23 +17165,23 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B2">
         <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -17183,18 +17189,18 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -17202,7 +17208,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -17244,7 +17250,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -17261,7 +17267,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -17278,7 +17284,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -17292,7 +17298,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -17306,7 +17312,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -17320,7 +17326,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -17334,7 +17340,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -17364,7 +17370,7 @@
         <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C10" t="s">
         <v>310</v>
@@ -17415,7 +17421,7 @@
         <v>430</v>
       </c>
       <c r="B16" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -17431,7 +17437,7 @@
         <v>510</v>
       </c>
       <c r="B18" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
